--- a/接口文档/支付api/支付接口文档.xlsx
+++ b/接口文档/支付api/支付接口文档.xlsx
@@ -38,13 +38,14 @@
     <sheet name="前台支付成功保存接口" sheetId="42" r:id="rId29"/>
     <sheet name="支付平台统一下单接口" sheetId="40" r:id="rId30"/>
     <sheet name="支付异步通知接口" sheetId="44" r:id="rId31"/>
+    <sheet name="获取微信用户信息接口" sheetId="46" r:id="rId32"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="388">
   <si>
     <t>功能说明：</t>
   </si>
@@ -1416,18 +1417,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>第二版</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一版</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一版</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>支付异步通知接口</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1435,6 +1424,70 @@
     <t xml:space="preserve">支付异步通知接口
 </t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取微信用户信息接口
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信册认证号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取微信用户信息接口</t>
   </si>
 </sst>
 </file>
@@ -1902,17 +1955,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1939,6 +1986,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,9 +2059,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2319,186 +2372,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2531,35 +2584,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2576,7 +2629,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="47" t="s">
         <v>180</v>
       </c>
@@ -2693,43 +2746,43 @@
       <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="64"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="64"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="47" t="s">
         <v>61</v>
       </c>
@@ -2740,7 +2793,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="50" t="s">
         <v>63</v>
       </c>
@@ -2751,25 +2804,25 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="64"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="65"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="17"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2908,35 +2961,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2953,7 +3006,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45" t="s">
         <v>165</v>
       </c>
@@ -3052,43 +3105,43 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="46" t="s">
         <v>70</v>
       </c>
@@ -3099,7 +3152,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="46" t="s">
         <v>67</v>
       </c>
@@ -3108,7 +3161,7 @@
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="46" t="s">
         <v>68</v>
       </c>
@@ -3116,7 +3169,7 @@
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="46" t="s">
         <v>69</v>
       </c>
@@ -3124,13 +3177,13 @@
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="65"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -3269,35 +3322,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3314,7 +3367,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>118</v>
       </c>
@@ -3554,64 +3607,64 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="81" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="64"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="64"/>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="74"/>
+      <c r="B24" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="64"/>
-      <c r="B25" s="87" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="64"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="64"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="64"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -3623,7 +3676,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="64"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -3635,7 +3688,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="65"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -3853,35 +3906,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3898,7 +3951,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
@@ -3930,18 +3983,18 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3950,7 +4003,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -3959,16 +4012,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>76</v>
       </c>
@@ -3979,31 +4032,31 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="65"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -4141,35 +4194,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4186,7 +4239,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
@@ -4218,18 +4271,18 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4238,7 +4291,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -4247,16 +4300,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>77</v>
       </c>
@@ -4267,7 +4320,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>80</v>
       </c>
@@ -4278,7 +4331,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>81</v>
       </c>
@@ -4289,7 +4342,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>82</v>
       </c>
@@ -4300,7 +4353,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>83</v>
       </c>
@@ -4311,7 +4364,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="65"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="17" t="s">
         <v>84</v>
       </c>
@@ -4479,35 +4532,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4524,7 +4577,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>80</v>
       </c>
@@ -4535,7 +4588,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>81</v>
       </c>
@@ -4546,7 +4599,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>82</v>
       </c>
@@ -4557,7 +4610,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>83</v>
       </c>
@@ -4568,7 +4621,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>84</v>
       </c>
@@ -4579,7 +4632,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>85</v>
       </c>
@@ -4590,7 +4643,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>86</v>
       </c>
@@ -4601,7 +4654,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>87</v>
       </c>
@@ -4612,7 +4665,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>88</v>
       </c>
@@ -4623,7 +4676,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>89</v>
       </c>
@@ -4634,7 +4687,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>90</v>
       </c>
@@ -4645,7 +4698,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
@@ -4656,7 +4709,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>254</v>
       </c>
@@ -4666,12 +4719,12 @@
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1">
       <c r="A19" s="7"/>
@@ -4740,18 +4793,18 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="64"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="17" t="s">
         <v>24</v>
       </c>
@@ -4760,7 +4813,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="64"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="17" t="s">
         <v>26</v>
       </c>
@@ -4769,25 +4822,25 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="72" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="64"/>
-      <c r="B29" s="87" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="64"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="17"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -4898,35 +4951,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4943,7 +4996,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>110</v>
       </c>
@@ -4961,18 +5014,18 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -4981,7 +5034,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
@@ -4990,25 +5043,25 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5118,35 +5171,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5163,7 +5216,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>110</v>
       </c>
@@ -5174,24 +5227,24 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -5200,7 +5253,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
@@ -5209,25 +5262,25 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5335,35 +5388,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5380,7 +5433,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>110</v>
       </c>
@@ -5391,24 +5444,24 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -5417,7 +5470,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
@@ -5426,25 +5479,25 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5554,35 +5607,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5599,7 +5652,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>148</v>
       </c>
@@ -5610,46 +5663,46 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="93" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="51" t="s">
         <v>114</v>
       </c>
@@ -5660,7 +5713,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5753,7 +5806,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5766,291 +5819,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="62" t="s">
         <v>198</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="59" t="s">
-        <v>372</v>
-      </c>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="62" t="s">
         <v>199</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="62" t="s">
         <v>355</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="62" t="s">
         <v>200</v>
       </c>
       <c r="B4" s="59"/>
-      <c r="C4" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C4" s="59"/>
       <c r="D4" s="59"/>
       <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="62" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="59"/>
-      <c r="C5" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="62" t="s">
         <v>356</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C6" s="59"/>
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="62" t="s">
         <v>202</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C7" s="59"/>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="62" t="s">
         <v>357</v>
       </c>
       <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="62" t="s">
         <v>358</v>
       </c>
       <c r="B9" s="59"/>
-      <c r="C9" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C9" s="59"/>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="62" t="s">
         <v>203</v>
       </c>
       <c r="B10" s="59"/>
-      <c r="C10" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="62" t="s">
         <v>204</v>
       </c>
       <c r="B11" s="59"/>
-      <c r="C11" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="62" t="s">
         <v>359</v>
       </c>
       <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C12" s="59"/>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="62" t="s">
         <v>205</v>
       </c>
       <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="62" t="s">
         <v>360</v>
       </c>
       <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="62" t="s">
         <v>206</v>
       </c>
       <c r="B15" s="59"/>
-      <c r="C15" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="62" t="s">
         <v>361</v>
       </c>
       <c r="B16" s="59"/>
-      <c r="C16" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="62" t="s">
         <v>362</v>
       </c>
       <c r="B17" s="59"/>
-      <c r="C17" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C17" s="59"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="62" t="s">
         <v>234</v>
       </c>
       <c r="B18" s="59"/>
-      <c r="C18" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="62" t="s">
         <v>363</v>
       </c>
       <c r="B19" s="59"/>
-      <c r="C19" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="62" t="s">
         <v>364</v>
       </c>
       <c r="B20" s="59"/>
-      <c r="C20" s="59" t="s">
-        <v>371</v>
-      </c>
+      <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="62" t="s">
         <v>353</v>
       </c>
       <c r="B21" s="59"/>
-      <c r="C21" s="59" t="s">
-        <v>370</v>
-      </c>
+      <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="62" t="s">
         <v>365</v>
       </c>
       <c r="B22" s="59"/>
-      <c r="C22" s="59" t="s">
-        <v>370</v>
-      </c>
+      <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="62" t="s">
         <v>366</v>
       </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="59" t="s">
-        <v>370</v>
-      </c>
+      <c r="C23" s="59"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="62" t="s">
         <v>354</v>
       </c>
       <c r="B24" s="59"/>
-      <c r="C24" s="59" t="s">
-        <v>370</v>
-      </c>
+      <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="62" t="s">
         <v>367</v>
       </c>
       <c r="B25" s="59"/>
-      <c r="C25" s="59" t="s">
-        <v>370</v>
-      </c>
+      <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="96" t="s">
-        <v>373</v>
+      <c r="A26" s="62" t="s">
+        <v>370</v>
       </c>
       <c r="B26" s="59"/>
-      <c r="C26" s="59" t="s">
-        <v>370</v>
-      </c>
+      <c r="C26" s="59"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="59"/>
+      <c r="A27" s="62" t="s">
+        <v>387</v>
+      </c>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -6169,6 +6172,7 @@
     <hyperlink ref="A24" location="前台支付成功保存接口!A1" display="前台支付成功保存接口"/>
     <hyperlink ref="A25" location="支付平台统一下单接口!A1" display="支付平台统一下单接口"/>
     <hyperlink ref="A26" location="支付异步通知接口!A1" display="支付异步通知接口"/>
+    <hyperlink ref="A27" location="获取微信用户信息接口!A1" display="获取微信用户信息接口"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6195,35 +6199,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -6240,7 +6244,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>118</v>
       </c>
@@ -6251,7 +6255,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>119</v>
       </c>
@@ -6262,7 +6266,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>120</v>
       </c>
@@ -6273,7 +6277,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>121</v>
       </c>
@@ -6284,7 +6288,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>122</v>
       </c>
@@ -6295,7 +6299,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>123</v>
       </c>
@@ -6306,7 +6310,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>124</v>
       </c>
@@ -6317,7 +6321,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>125</v>
       </c>
@@ -6328,7 +6332,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>126</v>
       </c>
@@ -6339,7 +6343,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>127</v>
       </c>
@@ -6350,7 +6354,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>128</v>
       </c>
@@ -6361,7 +6365,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>129</v>
       </c>
@@ -6405,18 +6409,18 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
       </c>
@@ -6425,7 +6429,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="17" t="s">
         <v>26</v>
       </c>
@@ -6434,25 +6438,25 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="64"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="64"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="74"/>
+      <c r="B24" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="64"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="17"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -6561,38 +6565,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -6610,7 +6614,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>147</v>
       </c>
@@ -6622,7 +6626,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -6630,7 +6634,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
@@ -6638,19 +6642,19 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
@@ -6662,7 +6666,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
@@ -6674,17 +6678,17 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="51" t="s">
         <v>221</v>
       </c>
@@ -6696,7 +6700,7 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -6755,38 +6759,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -6804,7 +6808,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>147</v>
       </c>
@@ -6816,7 +6820,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>232</v>
       </c>
@@ -6828,7 +6832,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -6836,19 +6840,19 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
@@ -6860,7 +6864,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
@@ -6872,27 +6876,27 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -6953,38 +6957,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7002,7 +7006,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>147</v>
       </c>
@@ -7014,7 +7018,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>224</v>
       </c>
@@ -7026,7 +7030,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7034,19 +7038,19 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
@@ -7058,7 +7062,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
@@ -7070,27 +7074,27 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -7151,38 +7155,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7200,7 +7204,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>226</v>
       </c>
@@ -7212,7 +7216,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -7220,7 +7224,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7228,19 +7232,19 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
@@ -7252,7 +7256,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
@@ -7264,17 +7268,17 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>240</v>
       </c>
@@ -7286,7 +7290,7 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>241</v>
       </c>
@@ -7296,7 +7300,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>235</v>
       </c>
@@ -7308,7 +7312,7 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>237</v>
       </c>
@@ -7320,7 +7324,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
@@ -7332,7 +7336,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>238</v>
       </c>
@@ -7344,7 +7348,7 @@
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7352,7 +7356,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7360,7 +7364,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7420,38 +7424,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7469,7 +7473,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>226</v>
       </c>
@@ -7481,7 +7485,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -7489,7 +7493,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7497,19 +7501,19 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
@@ -7521,7 +7525,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
@@ -7533,17 +7537,17 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>242</v>
       </c>
@@ -7555,7 +7559,7 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>243</v>
       </c>
@@ -7565,7 +7569,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
@@ -7577,7 +7581,7 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>245</v>
       </c>
@@ -7589,7 +7593,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>247</v>
       </c>
@@ -7601,7 +7605,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>249</v>
       </c>
@@ -7613,7 +7617,7 @@
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17" t="s">
         <v>251</v>
       </c>
@@ -7625,7 +7629,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17" t="s">
         <v>252</v>
       </c>
@@ -7637,7 +7641,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7645,7 +7649,7 @@
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7711,38 +7715,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7760,7 +7764,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>277</v>
       </c>
@@ -7772,7 +7776,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>278</v>
       </c>
@@ -7784,7 +7788,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>279</v>
       </c>
@@ -7796,7 +7800,7 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>280</v>
       </c>
@@ -7808,7 +7812,7 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>281</v>
       </c>
@@ -7820,7 +7824,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>282</v>
       </c>
@@ -7832,7 +7836,7 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>283</v>
       </c>
@@ -7844,7 +7848,7 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>284</v>
       </c>
@@ -7856,7 +7860,7 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>285</v>
       </c>
@@ -7868,19 +7872,19 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
       </c>
@@ -7892,7 +7896,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
@@ -7904,17 +7908,17 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17" t="s">
         <v>44</v>
       </c>
@@ -7926,7 +7930,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17" t="s">
         <v>288</v>
       </c>
@@ -7938,7 +7942,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7946,7 +7950,7 @@
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7954,7 +7958,7 @@
       <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7962,7 +7966,7 @@
       <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -7970,7 +7974,7 @@
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="64"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -7978,7 +7982,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="64"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -7986,7 +7990,7 @@
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="64"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -8052,38 +8056,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8101,7 +8105,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>285</v>
       </c>
@@ -8125,19 +8129,19 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -8149,7 +8153,7 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
@@ -8161,27 +8165,27 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>44</v>
       </c>
@@ -8193,7 +8197,7 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>288</v>
       </c>
@@ -8205,7 +8209,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>277</v>
       </c>
@@ -8217,7 +8221,7 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>278</v>
       </c>
@@ -8229,7 +8233,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>279</v>
       </c>
@@ -8241,7 +8245,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>280</v>
       </c>
@@ -8253,7 +8257,7 @@
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17" t="s">
         <v>281</v>
       </c>
@@ -8265,7 +8269,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17" t="s">
         <v>282</v>
       </c>
@@ -8277,7 +8281,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17" t="s">
         <v>283</v>
       </c>
@@ -8559,38 +8563,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8608,7 +8612,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
@@ -8620,7 +8624,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>288</v>
       </c>
@@ -8632,7 +8636,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>277</v>
       </c>
@@ -8644,7 +8648,7 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>278</v>
       </c>
@@ -8656,7 +8660,7 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>279</v>
       </c>
@@ -8668,7 +8672,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>280</v>
       </c>
@@ -8680,7 +8684,7 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>281</v>
       </c>
@@ -8692,7 +8696,7 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>282</v>
       </c>
@@ -8704,7 +8708,7 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17" t="s">
         <v>283</v>
       </c>
@@ -8716,7 +8720,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>284</v>
       </c>
@@ -8728,7 +8732,7 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>285</v>
       </c>
@@ -8740,7 +8744,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>295</v>
       </c>
@@ -8752,7 +8756,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>296</v>
       </c>
@@ -8764,7 +8768,7 @@
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17" t="s">
         <v>297</v>
       </c>
@@ -8776,7 +8780,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17" t="s">
         <v>298</v>
       </c>
@@ -8788,7 +8792,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17" t="s">
         <v>299</v>
       </c>
@@ -8800,7 +8804,7 @@
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="17" t="s">
         <v>309</v>
       </c>
@@ -8812,7 +8816,7 @@
       <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="17" t="s">
         <v>310</v>
       </c>
@@ -8824,7 +8828,7 @@
       <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="17" t="s">
         <v>311</v>
       </c>
@@ -8836,7 +8840,7 @@
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="64"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="17" t="s">
         <v>312</v>
       </c>
@@ -8848,7 +8852,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="64"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="17" t="s">
         <v>313</v>
       </c>
@@ -8860,7 +8864,7 @@
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="64"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="17" t="s">
         <v>314</v>
       </c>
@@ -8872,7 +8876,7 @@
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="16.5">
-      <c r="A27" s="64"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="17" t="s">
         <v>315</v>
       </c>
@@ -8884,7 +8888,7 @@
       <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" ht="16.5">
-      <c r="A28" s="64"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="17" t="s">
         <v>316</v>
       </c>
@@ -8896,7 +8900,7 @@
       <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="16.5">
-      <c r="A29" s="64"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="17" t="s">
         <v>317</v>
       </c>
@@ -8908,7 +8912,7 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="64"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="17" t="s">
         <v>343</v>
       </c>
@@ -8920,7 +8924,7 @@
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="64"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="17" t="s">
         <v>344</v>
       </c>
@@ -8932,7 +8936,7 @@
       <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="64"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="17" t="s">
         <v>345</v>
       </c>
@@ -8944,7 +8948,7 @@
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="64"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="17" t="s">
         <v>340</v>
       </c>
@@ -8956,7 +8960,7 @@
       <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
-      <c r="A34" s="64"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="17" t="s">
         <v>341</v>
       </c>
@@ -8968,7 +8972,7 @@
       <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
-      <c r="A35" s="64"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="17" t="s">
         <v>342</v>
       </c>
@@ -8980,7 +8984,7 @@
       <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
-      <c r="A36" s="64"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="17" t="s">
         <v>339</v>
       </c>
@@ -8992,7 +8996,7 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" ht="16.5">
-      <c r="A37" s="64"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="17" t="s">
         <v>336</v>
       </c>
@@ -9004,7 +9008,7 @@
       <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="16.5">
-      <c r="A38" s="64"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="17" t="s">
         <v>337</v>
       </c>
@@ -9016,7 +9020,7 @@
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
-      <c r="A39" s="64"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="17" t="s">
         <v>338</v>
       </c>
@@ -9028,7 +9032,7 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
-      <c r="A40" s="64"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="17" t="s">
         <v>299</v>
       </c>
@@ -9040,7 +9044,7 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="16.5">
-      <c r="A41" s="64"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="17" t="s">
         <v>346</v>
       </c>
@@ -9052,7 +9056,7 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="16.5">
-      <c r="A42" s="64"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="17" t="s">
         <v>347</v>
       </c>
@@ -9064,7 +9068,7 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="16.5">
-      <c r="A43" s="64"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="17" t="s">
         <v>165</v>
       </c>
@@ -9076,7 +9080,7 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="16.5">
-      <c r="A44" s="64"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="17" t="s">
         <v>348</v>
       </c>
@@ -9088,7 +9092,7 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" ht="16.5">
-      <c r="A45" s="64"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="17" t="s">
         <v>349</v>
       </c>
@@ -9100,19 +9104,19 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" ht="16.5">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="16.5">
-      <c r="A47" s="64"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
@@ -9124,7 +9128,7 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
-      <c r="A48" s="64"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="17" t="s">
         <v>26</v>
       </c>
@@ -9136,27 +9140,27 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
-      <c r="A49" s="64"/>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="74"/>
+      <c r="B49" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="16.5">
-      <c r="A50" s="64"/>
-      <c r="B50" s="90" t="s">
+      <c r="A50" s="74"/>
+      <c r="B50" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="93"/>
       <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
-      <c r="A51" s="64"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -9164,7 +9168,7 @@
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" ht="16.5">
-      <c r="A52" s="64"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -9172,7 +9176,7 @@
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
-      <c r="A53" s="64"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -9180,7 +9184,7 @@
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" ht="16.5">
-      <c r="A54" s="64"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -9188,7 +9192,7 @@
       <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6" ht="16.5">
-      <c r="A55" s="64"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -9196,7 +9200,7 @@
       <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="16.5">
-      <c r="A56" s="64"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -9204,7 +9208,7 @@
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" ht="16.5">
-      <c r="A57" s="64"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -9212,7 +9216,7 @@
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" ht="16.5">
-      <c r="A58" s="64"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -9220,7 +9224,7 @@
       <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" ht="16.5">
-      <c r="A59" s="64"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -9398,38 +9402,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -9447,7 +9451,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
@@ -9459,7 +9463,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>285</v>
       </c>
@@ -9471,7 +9475,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>295</v>
       </c>
@@ -9483,7 +9487,7 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>340</v>
       </c>
@@ -9495,7 +9499,7 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>351</v>
       </c>
@@ -9507,19 +9511,19 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
@@ -9531,7 +9535,7 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
@@ -9543,27 +9547,27 @@
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
-      <c r="B14" s="90" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -9571,7 +9575,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -9579,7 +9583,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -9587,7 +9591,7 @@
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9595,7 +9599,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -9603,7 +9607,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -9611,7 +9615,7 @@
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -9619,7 +9623,7 @@
       <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -9627,7 +9631,7 @@
       <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -9806,35 +9810,35 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -9851,7 +9855,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
@@ -9866,7 +9870,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
@@ -9881,7 +9885,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="30" t="s">
         <v>19</v>
       </c>
@@ -9896,18 +9900,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -9918,7 +9922,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="65"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
@@ -10086,38 +10090,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -10135,7 +10139,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
@@ -10147,7 +10151,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>285</v>
       </c>
@@ -10159,7 +10163,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>282</v>
       </c>
@@ -10171,7 +10175,7 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>284</v>
       </c>
@@ -10183,19 +10187,19 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
@@ -10207,7 +10211,7 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -10219,27 +10223,27 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
-      <c r="B13" s="90" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
@@ -10251,7 +10255,7 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17" t="s">
         <v>288</v>
       </c>
@@ -10263,7 +10267,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17" t="s">
         <v>282</v>
       </c>
@@ -10275,7 +10279,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>283</v>
       </c>
@@ -10530,38 +10534,38 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -10579,7 +10583,7 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="17" t="s">
         <v>282</v>
       </c>
@@ -10591,7 +10595,7 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>284</v>
       </c>
@@ -10603,7 +10607,7 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="17" t="s">
         <v>340</v>
       </c>
@@ -10615,19 +10619,19 @@
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
@@ -10639,7 +10643,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
@@ -10651,27 +10655,27 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -10679,7 +10683,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -10687,7 +10691,7 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -10695,7 +10699,7 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -10703,7 +10707,7 @@
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -10711,7 +10715,7 @@
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -10719,7 +10723,7 @@
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -10727,7 +10731,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -10735,7 +10739,7 @@
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -10887,6 +10891,398 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="74"/>
+      <c r="B5" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="74"/>
+      <c r="B6" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="74"/>
+      <c r="B8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="74"/>
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="74"/>
+      <c r="B10" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="74"/>
+      <c r="B11" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="74"/>
+      <c r="B12" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="74"/>
+      <c r="B13" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="A14" s="74"/>
+      <c r="B14" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="74"/>
+      <c r="B15" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="74"/>
+      <c r="B16" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="74"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="74"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="74"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="74"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="29"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
+      <c r="A22" s="29"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="24" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="26" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="27" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="28" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="29" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="30" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="31" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="32" spans="1:6" s="17" customFormat="1" ht="16.5"/>
+    <row r="33" spans="1:5" s="17" customFormat="1" ht="16.5"/>
+    <row r="34" spans="1:5" s="17" customFormat="1" ht="16.5"/>
+    <row r="35" spans="1:5" ht="16.5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10914,35 +11310,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -10959,7 +11355,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
@@ -10974,18 +11370,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
@@ -10994,7 +11390,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="65"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -11166,35 +11562,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -11211,7 +11607,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="40" t="s">
         <v>42</v>
       </c>
@@ -11247,18 +11643,18 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
@@ -11267,7 +11663,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
@@ -11276,16 +11672,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -11300,7 +11696,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="12" t="s">
         <v>368</v>
       </c>
@@ -11315,28 +11711,28 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="22"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="22"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="22"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="65"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="22"/>
@@ -11475,35 +11871,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -11520,7 +11916,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
@@ -11535,18 +11931,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
@@ -11555,7 +11951,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -11564,16 +11960,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
@@ -11588,27 +11984,27 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="16"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="16"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="16"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="16"/>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="65"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="16"/>
       <c r="E15" s="18"/>
     </row>
@@ -11720,35 +12116,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -11765,7 +12161,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="43" t="s">
         <v>75</v>
       </c>
@@ -11797,18 +12193,18 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
@@ -11817,7 +12213,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -11826,16 +12222,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="19" t="s">
         <v>52</v>
       </c>
@@ -11850,7 +12246,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="22" t="s">
         <v>54</v>
       </c>
@@ -11865,25 +12261,25 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="65"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="17"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -12021,35 +12417,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -12066,7 +12462,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="43" t="s">
         <v>45</v>
       </c>
@@ -12102,18 +12498,18 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
@@ -12122,7 +12518,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -12131,49 +12527,49 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="22"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="65"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="17"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -12312,35 +12708,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -12357,7 +12753,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="49" t="s">
         <v>45</v>
       </c>
@@ -12452,43 +12848,43 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="47" t="s">
         <v>61</v>
       </c>
@@ -12499,7 +12895,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="50" t="s">
         <v>63</v>
       </c>
@@ -12510,25 +12906,25 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="65"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>

--- a/接口文档/支付api/支付接口文档.xlsx
+++ b/接口文档/支付api/支付接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="1665" windowWidth="21495" windowHeight="10290" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="1665" windowWidth="21495" windowHeight="10290" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="删除分类接口" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="批量删除分类接口" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="生成支付信息接口" sheetId="37" r:id="rId6"/>
-    <sheet name="查询待支付支付信息接口" sheetId="39" r:id="rId7"/>
+    <sheet name="查询待支付信息接口" sheetId="39" r:id="rId7"/>
     <sheet name="支付平台统一下单接口" sheetId="40" r:id="rId8"/>
     <sheet name="前台支付成功保存接口" sheetId="42" r:id="rId9"/>
     <sheet name="支付异步通知接口" sheetId="44" r:id="rId10"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
   <si>
     <t>功能说明：</t>
   </si>
@@ -482,6 +482,18 @@
   </si>
   <si>
     <t>查询待支付支付信息接口</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1786,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3244,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4133,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4205,8 +4217,12 @@
       <c r="B5" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E5" s="16" t="s">
         <v>67</v>
       </c>
@@ -4217,8 +4233,12 @@
       <c r="B6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E6" s="16" t="s">
         <v>126</v>
       </c>
@@ -4229,8 +4249,12 @@
       <c r="B7" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>125</v>
       </c>

--- a/接口文档/支付api/支付接口文档.xlsx
+++ b/接口文档/支付api/支付接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="1665" windowWidth="21495" windowHeight="10290" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-90" yWindow="1665" windowWidth="21495" windowHeight="10290" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>功能说明：</t>
   </si>
@@ -494,6 +494,14 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>openId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3755,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3875,7 +3883,7 @@
     <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="47"/>
       <c r="B8" s="16" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>114</v>
@@ -3884,42 +3892,42 @@
         <v>113</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="47"/>
+      <c r="B9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="46" t="s">
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="47"/>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>114</v>
@@ -3928,52 +3936,60 @@
         <v>113</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="47"/>
-      <c r="B12" s="35" t="s">
-        <v>112</v>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="47"/>
-      <c r="B13" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="47"/>
-      <c r="B14" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="47"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
@@ -4001,7 +4017,7 @@
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="25"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4016,7 +4032,14 @@
       <c r="E20" s="16"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="16.5"/>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="25"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="25"/>
+    </row>
     <row r="22" spans="1:6" s="16" customFormat="1" ht="16.5"/>
     <row r="23" spans="1:6" s="16" customFormat="1" ht="16.5"/>
     <row r="24" spans="1:6" s="16" customFormat="1" ht="16.5"/>
@@ -4026,13 +4049,7 @@
     <row r="28" spans="1:6" s="16" customFormat="1" ht="16.5"/>
     <row r="29" spans="1:6" s="16" customFormat="1" ht="16.5"/>
     <row r="30" spans="1:6" s="16" customFormat="1" ht="16.5"/>
-    <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-    </row>
+    <row r="31" spans="1:6" s="16" customFormat="1" ht="16.5"/>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
@@ -4124,16 +4141,23 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
     </row>
+    <row r="45" spans="1:5" ht="16.5">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4145,7 +4169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
